--- a/Code/Results/Cases/Case_1_163/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_163/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007695583645082</v>
+        <v>1.037195823397943</v>
       </c>
       <c r="D2">
-        <v>1.049814677636937</v>
+        <v>1.058775295629043</v>
       </c>
       <c r="E2">
-        <v>1.012853124807946</v>
+        <v>1.035995151814558</v>
       </c>
       <c r="F2">
-        <v>1.045268819582445</v>
+        <v>1.062890104108977</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057364686257872</v>
+        <v>1.046422988364257</v>
       </c>
       <c r="J2">
-        <v>1.029648532429189</v>
+        <v>1.042300013289401</v>
       </c>
       <c r="K2">
-        <v>1.0606210431465</v>
+        <v>1.061506608624412</v>
       </c>
       <c r="L2">
-        <v>1.024136252920806</v>
+        <v>1.038790161008696</v>
       </c>
       <c r="M2">
-        <v>1.056131554949291</v>
+        <v>1.065610226813948</v>
       </c>
       <c r="N2">
-        <v>1.013163874404795</v>
+        <v>1.017949323390593</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013075538796579</v>
+        <v>1.038301907098893</v>
       </c>
       <c r="D3">
-        <v>1.053945826845704</v>
+        <v>1.059625727306972</v>
       </c>
       <c r="E3">
-        <v>1.017236982254482</v>
+        <v>1.036941194715247</v>
       </c>
       <c r="F3">
-        <v>1.050158978640297</v>
+        <v>1.063938690463393</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059449286532608</v>
+        <v>1.046771927702337</v>
       </c>
       <c r="J3">
-        <v>1.033215988852824</v>
+        <v>1.043049588437844</v>
       </c>
       <c r="K3">
-        <v>1.063932030803196</v>
+        <v>1.062171047564367</v>
       </c>
       <c r="L3">
-        <v>1.027653962663031</v>
+        <v>1.039545351382776</v>
       </c>
       <c r="M3">
-        <v>1.060187903056742</v>
+        <v>1.066473130196653</v>
       </c>
       <c r="N3">
-        <v>1.014411520817796</v>
+        <v>1.018205966331456</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016476003020154</v>
+        <v>1.039017611630844</v>
       </c>
       <c r="D4">
-        <v>1.056559595345121</v>
+        <v>1.060175866077687</v>
       </c>
       <c r="E4">
-        <v>1.020013601362798</v>
+        <v>1.037553648142538</v>
       </c>
       <c r="F4">
-        <v>1.053255948085365</v>
+        <v>1.064617505181267</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060756170195268</v>
+        <v>1.046996346987633</v>
       </c>
       <c r="J4">
-        <v>1.035467438837713</v>
+        <v>1.043534060973029</v>
       </c>
       <c r="K4">
-        <v>1.066020152125062</v>
+        <v>1.062600191590333</v>
       </c>
       <c r="L4">
-        <v>1.029876334519715</v>
+        <v>1.04003369016254</v>
       </c>
       <c r="M4">
-        <v>1.062751455498212</v>
+        <v>1.067031190109528</v>
       </c>
       <c r="N4">
-        <v>1.015198113246393</v>
+        <v>1.01837165451397</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017887036335458</v>
+        <v>1.039318493206447</v>
       </c>
       <c r="D5">
-        <v>1.057644730687399</v>
+        <v>1.060407108717139</v>
       </c>
       <c r="E5">
-        <v>1.02116709141616</v>
+        <v>1.037811195448025</v>
       </c>
       <c r="F5">
-        <v>1.054542431816816</v>
+        <v>1.064902952750207</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061295843317062</v>
+        <v>1.047090365359391</v>
       </c>
       <c r="J5">
-        <v>1.036400826646309</v>
+        <v>1.043737601072812</v>
       </c>
       <c r="K5">
-        <v>1.066885443278994</v>
+        <v>1.062780413820245</v>
       </c>
       <c r="L5">
-        <v>1.030798219292203</v>
+        <v>1.040238911271845</v>
       </c>
       <c r="M5">
-        <v>1.06381506521169</v>
+        <v>1.067265727421962</v>
       </c>
       <c r="N5">
-        <v>1.015524007718845</v>
+        <v>1.018441219529261</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018122891403484</v>
+        <v>1.039369012532416</v>
       </c>
       <c r="D6">
-        <v>1.057826141252101</v>
+        <v>1.060445933268317</v>
       </c>
       <c r="E6">
-        <v>1.021359974180494</v>
+        <v>1.037854442988265</v>
       </c>
       <c r="F6">
-        <v>1.054757547788914</v>
+        <v>1.064950884979456</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061385894344147</v>
+        <v>1.047106132252002</v>
       </c>
       <c r="J6">
-        <v>1.036556791319866</v>
+        <v>1.043771768606456</v>
       </c>
       <c r="K6">
-        <v>1.067030005748073</v>
+        <v>1.062810662782436</v>
       </c>
       <c r="L6">
-        <v>1.03095229420696</v>
+        <v>1.040273364314342</v>
       </c>
       <c r="M6">
-        <v>1.063992837748102</v>
+        <v>1.067305103096639</v>
       </c>
       <c r="N6">
-        <v>1.015578450792208</v>
+        <v>1.018452894504913</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016494929065252</v>
+        <v>1.039021632026658</v>
       </c>
       <c r="D7">
-        <v>1.056574148115472</v>
+        <v>1.060178956093951</v>
       </c>
       <c r="E7">
-        <v>1.02002906784879</v>
+        <v>1.037557089219822</v>
       </c>
       <c r="F7">
-        <v>1.053273198173955</v>
+        <v>1.064621319055638</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060763419208182</v>
+        <v>1.046997604552604</v>
       </c>
       <c r="J7">
-        <v>1.035479961719914</v>
+        <v>1.04353678120487</v>
       </c>
       <c r="K7">
-        <v>1.066031762947655</v>
+        <v>1.062602600475115</v>
       </c>
       <c r="L7">
-        <v>1.029888700893001</v>
+        <v>1.040036432637605</v>
       </c>
       <c r="M7">
-        <v>1.062765722247109</v>
+        <v>1.067034324288035</v>
       </c>
       <c r="N7">
-        <v>1.015202486462546</v>
+        <v>1.018372584399976</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009530979399694</v>
+        <v>1.037569631156617</v>
       </c>
       <c r="D8">
-        <v>1.051223431537389</v>
+        <v>1.059062733266737</v>
       </c>
       <c r="E8">
-        <v>1.014347453726111</v>
+        <v>1.036314809219935</v>
       </c>
       <c r="F8">
-        <v>1.046935793861101</v>
+        <v>1.063244414647948</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05807807534098</v>
+        <v>1.046541197234134</v>
       </c>
       <c r="J8">
-        <v>1.030866274927765</v>
+        <v>1.042553450261964</v>
       </c>
       <c r="K8">
-        <v>1.061751529223335</v>
+        <v>1.061731322816439</v>
       </c>
       <c r="L8">
-        <v>1.025336524451944</v>
+        <v>1.039045447408299</v>
       </c>
       <c r="M8">
-        <v>1.057515417546137</v>
+        <v>1.065901910311075</v>
       </c>
       <c r="N8">
-        <v>1.013589918410136</v>
+        <v>1.018036135095609</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9966025587682524</v>
+        <v>1.035010944492715</v>
       </c>
       <c r="D9">
-        <v>1.041315260392458</v>
+        <v>1.057094694959282</v>
       </c>
       <c r="E9">
-        <v>1.003848527279411</v>
+        <v>1.034128054918739</v>
       </c>
       <c r="F9">
-        <v>1.035222980773815</v>
+        <v>1.060820508369882</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053009513728017</v>
+        <v>1.045726475068794</v>
       </c>
       <c r="J9">
-        <v>1.022275862522456</v>
+        <v>1.040816454596851</v>
       </c>
       <c r="K9">
-        <v>1.053771793367867</v>
+        <v>1.060189960565971</v>
       </c>
       <c r="L9">
-        <v>1.016879471887189</v>
+        <v>1.037296751338497</v>
       </c>
       <c r="M9">
-        <v>1.047769316923476</v>
+        <v>1.063904188988144</v>
       </c>
       <c r="N9">
-        <v>1.010581454846894</v>
+        <v>1.017440383467543</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9874831386905679</v>
+        <v>1.033305054004772</v>
       </c>
       <c r="D10">
-        <v>1.034349923270896</v>
+        <v>1.055781943906844</v>
       </c>
       <c r="E10">
-        <v>0.9964802800075422</v>
+        <v>1.032671764773897</v>
       </c>
       <c r="F10">
-        <v>1.027002271284415</v>
+        <v>1.059206174009831</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049381428028932</v>
+        <v>1.045176285201569</v>
       </c>
       <c r="J10">
-        <v>1.016202324207822</v>
+        <v>1.039655592790223</v>
       </c>
       <c r="K10">
-        <v>1.048125491530454</v>
+        <v>1.059158321550698</v>
       </c>
       <c r="L10">
-        <v>1.010913376218603</v>
+        <v>1.036129297039099</v>
       </c>
       <c r="M10">
-        <v>1.040900525792222</v>
+        <v>1.062570858318006</v>
       </c>
       <c r="N10">
-        <v>1.008451144030187</v>
+        <v>1.017041277961602</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.983401057744536</v>
+        <v>1.032566349386991</v>
       </c>
       <c r="D11">
-        <v>1.031239260875602</v>
+        <v>1.055213339863933</v>
       </c>
       <c r="E11">
-        <v>0.9931920099353406</v>
+        <v>1.032041540509923</v>
       </c>
       <c r="F11">
-        <v>1.023333658376203</v>
+        <v>1.058507529966244</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047745744406773</v>
+        <v>1.044936376260656</v>
       </c>
       <c r="J11">
-        <v>1.013481055576539</v>
+        <v>1.03915224360585</v>
       </c>
       <c r="K11">
-        <v>1.04559515467314</v>
+        <v>1.058710647858277</v>
       </c>
       <c r="L11">
-        <v>1.008243467239923</v>
+        <v>1.035623381034277</v>
       </c>
       <c r="M11">
-        <v>1.037828555247457</v>
+        <v>1.061993151926254</v>
       </c>
       <c r="N11">
-        <v>1.007496046512034</v>
+        <v>1.016868001369147</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9818633932352064</v>
+        <v>1.032291954067856</v>
       </c>
       <c r="D12">
-        <v>1.030068743186249</v>
+        <v>1.055002109042737</v>
       </c>
       <c r="E12">
-        <v>0.9919549535813603</v>
+        <v>1.031807500879393</v>
       </c>
       <c r="F12">
-        <v>1.021953550703248</v>
+        <v>1.058248078466775</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047127932582497</v>
+        <v>1.044847011918051</v>
       </c>
       <c r="J12">
-        <v>1.012455667023501</v>
+        <v>1.038965173470439</v>
       </c>
       <c r="K12">
-        <v>1.044641689385318</v>
+        <v>1.058544216618267</v>
       </c>
       <c r="L12">
-        <v>1.00723792426807</v>
+        <v>1.035435400819564</v>
       </c>
       <c r="M12">
-        <v>1.036671904496385</v>
+        <v>1.061778511054641</v>
       </c>
       <c r="N12">
-        <v>1.007136085281189</v>
+        <v>1.016803569394394</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9821942191158516</v>
+        <v>1.032350813153909</v>
       </c>
       <c r="D13">
-        <v>1.030320520213558</v>
+        <v>1.055047419942517</v>
       </c>
       <c r="E13">
-        <v>0.9922210306790851</v>
+        <v>1.031857700746972</v>
       </c>
       <c r="F13">
-        <v>1.022250394620498</v>
+        <v>1.058303729161262</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047260927911114</v>
+        <v>1.044866192254752</v>
       </c>
       <c r="J13">
-        <v>1.012676291099524</v>
+        <v>1.039005305355053</v>
       </c>
       <c r="K13">
-        <v>1.044846838395136</v>
+        <v>1.058579923259081</v>
       </c>
       <c r="L13">
-        <v>1.007454255917209</v>
+        <v>1.035475725955617</v>
       </c>
       <c r="M13">
-        <v>1.03692073051054</v>
+        <v>1.061824554740428</v>
       </c>
       <c r="N13">
-        <v>1.007213538206818</v>
+        <v>1.016817393409682</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9832743987768788</v>
+        <v>1.032543667944379</v>
       </c>
       <c r="D14">
-        <v>1.031142818373005</v>
+        <v>1.055195879986808</v>
       </c>
       <c r="E14">
-        <v>0.9930900794814891</v>
+        <v>1.032022193626364</v>
       </c>
       <c r="F14">
-        <v>1.023219940004134</v>
+        <v>1.058486082482401</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04769488810603</v>
+        <v>1.044928994507003</v>
       </c>
       <c r="J14">
-        <v>1.013396599462387</v>
+        <v>1.039136782450754</v>
       </c>
       <c r="K14">
-        <v>1.045516622621348</v>
+        <v>1.05869689356403</v>
       </c>
       <c r="L14">
-        <v>1.008160635638605</v>
+        <v>1.035607843766693</v>
       </c>
       <c r="M14">
-        <v>1.037733269520736</v>
+        <v>1.061975410767296</v>
       </c>
       <c r="N14">
-        <v>1.007466399749748</v>
+        <v>1.016862676816574</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9839370546723116</v>
+        <v>1.032662491114519</v>
       </c>
       <c r="D15">
-        <v>1.031647438247888</v>
+        <v>1.055287347685705</v>
       </c>
       <c r="E15">
-        <v>0.9936234257987798</v>
+        <v>1.032123550230668</v>
       </c>
       <c r="F15">
-        <v>1.023814967596463</v>
+        <v>1.058598443800482</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047960891108452</v>
+        <v>1.044967655720353</v>
       </c>
       <c r="J15">
-        <v>1.013838445200177</v>
+        <v>1.039217776056837</v>
       </c>
       <c r="K15">
-        <v>1.045927475151671</v>
+        <v>1.058768943576355</v>
       </c>
       <c r="L15">
-        <v>1.008594002606817</v>
+        <v>1.035689237886752</v>
       </c>
       <c r="M15">
-        <v>1.038231808369625</v>
+        <v>1.062068350854023</v>
       </c>
       <c r="N15">
-        <v>1.007621498576567</v>
+        <v>1.016890568229833</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9877511300798724</v>
+        <v>1.033354078401615</v>
       </c>
       <c r="D16">
-        <v>1.03455430201117</v>
+        <v>1.055819676632431</v>
       </c>
       <c r="E16">
-        <v>0.996696371857142</v>
+        <v>1.032713598228004</v>
       </c>
       <c r="F16">
-        <v>1.027243361345024</v>
+        <v>1.059252548573103</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049488575959938</v>
+        <v>1.045192171907695</v>
       </c>
       <c r="J16">
-        <v>1.016380928833964</v>
+        <v>1.03968898387916</v>
       </c>
       <c r="K16">
-        <v>1.048291558913394</v>
+        <v>1.059188011802691</v>
       </c>
       <c r="L16">
-        <v>1.011088677639477</v>
+        <v>1.036162864552528</v>
       </c>
       <c r="M16">
-        <v>1.041102268005812</v>
+        <v>1.062609191081575</v>
       </c>
       <c r="N16">
-        <v>1.0085138185261</v>
+        <v>1.017052768037121</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9901069779567543</v>
+        <v>1.033787880601</v>
       </c>
       <c r="D17">
-        <v>1.036351779876076</v>
+        <v>1.056153546031135</v>
       </c>
       <c r="E17">
-        <v>0.9985971228912397</v>
+        <v>1.033083815708381</v>
       </c>
       <c r="F17">
-        <v>1.029364010054954</v>
+        <v>1.059662951117911</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050429173156306</v>
+        <v>1.045332556962701</v>
       </c>
       <c r="J17">
-        <v>1.017950711653321</v>
+        <v>1.03998437550798</v>
       </c>
       <c r="K17">
-        <v>1.049751100165529</v>
+        <v>1.059450623293628</v>
       </c>
       <c r="L17">
-        <v>1.012629794417472</v>
+        <v>1.036459850585795</v>
       </c>
       <c r="M17">
-        <v>1.042876052012901</v>
+        <v>1.062948347968708</v>
       </c>
       <c r="N17">
-        <v>1.009064607265015</v>
+        <v>1.017154388172185</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9914683401610696</v>
+        <v>1.034040906031086</v>
       </c>
       <c r="D18">
-        <v>1.037391150251696</v>
+        <v>1.056348269583874</v>
       </c>
       <c r="E18">
-        <v>0.9996964342218615</v>
+        <v>1.033299791951534</v>
       </c>
       <c r="F18">
-        <v>1.030590507653074</v>
+        <v>1.059902368011538</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050971602916637</v>
+        <v>1.045414279768246</v>
       </c>
       <c r="J18">
-        <v>1.018857583710144</v>
+        <v>1.040156606058578</v>
       </c>
       <c r="K18">
-        <v>1.050594234804965</v>
+        <v>1.059603706812652</v>
       </c>
       <c r="L18">
-        <v>1.013520409664632</v>
+        <v>1.036633038883521</v>
       </c>
       <c r="M18">
-        <v>1.043901304505468</v>
+        <v>1.063146137192364</v>
       </c>
       <c r="N18">
-        <v>1.009382742690159</v>
+        <v>1.017213616973514</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9919304041320574</v>
+        <v>1.034127180510112</v>
       </c>
       <c r="D19">
-        <v>1.03774403563789</v>
+        <v>1.056414662424189</v>
       </c>
       <c r="E19">
-        <v>1.000069710346868</v>
+        <v>1.033373440152831</v>
       </c>
       <c r="F19">
-        <v>1.031006971053861</v>
+        <v>1.059984009099718</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051155520277521</v>
+        <v>1.04544211775661</v>
       </c>
       <c r="J19">
-        <v>1.019165343402972</v>
+        <v>1.040215320977513</v>
       </c>
       <c r="K19">
-        <v>1.050880354268334</v>
+        <v>1.059655888507441</v>
       </c>
       <c r="L19">
-        <v>1.013822703638743</v>
+        <v>1.036692085074135</v>
       </c>
       <c r="M19">
-        <v>1.044249326635329</v>
+        <v>1.063213572230105</v>
       </c>
       <c r="N19">
-        <v>1.009490696062807</v>
+        <v>1.017233804916445</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9898555475275848</v>
+        <v>1.033741338157538</v>
       </c>
       <c r="D20">
-        <v>1.036159871471573</v>
+        <v>1.056117726742431</v>
       </c>
       <c r="E20">
-        <v>0.998394165578771</v>
+        <v>1.033044091293779</v>
       </c>
       <c r="F20">
-        <v>1.029137571757578</v>
+        <v>1.059618915082361</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050328901415874</v>
+        <v>1.045317511672281</v>
       </c>
       <c r="J20">
-        <v>1.017783200425272</v>
+        <v>1.039952689651573</v>
       </c>
       <c r="K20">
-        <v>1.049595357647013</v>
+        <v>1.059422457218384</v>
       </c>
       <c r="L20">
-        <v>1.012465310542512</v>
+        <v>1.0364279907929</v>
       </c>
       <c r="M20">
-        <v>1.042686716779053</v>
+        <v>1.062911963291167</v>
       </c>
       <c r="N20">
-        <v>1.009005838639172</v>
+        <v>1.017143489896883</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9829569150849222</v>
+        <v>1.032486877232194</v>
       </c>
       <c r="D21">
-        <v>1.030901095610387</v>
+        <v>1.055152162919092</v>
       </c>
       <c r="E21">
-        <v>0.9928346062902411</v>
+        <v>1.031973753091969</v>
       </c>
       <c r="F21">
-        <v>1.022934922822517</v>
+        <v>1.05843238242908</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047567384936427</v>
+        <v>1.044910507752028</v>
       </c>
       <c r="J21">
-        <v>1.013184896577943</v>
+        <v>1.039098068592809</v>
       </c>
       <c r="K21">
-        <v>1.045319769207709</v>
+        <v>1.058662452735479</v>
       </c>
       <c r="L21">
-        <v>1.007953012827149</v>
+        <v>1.035568940036366</v>
       </c>
       <c r="M21">
-        <v>1.037494434842647</v>
+        <v>1.061930988946289</v>
       </c>
       <c r="N21">
-        <v>1.007392084194197</v>
+        <v>1.016849343896094</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9784948996850503</v>
+        <v>1.031698103727694</v>
       </c>
       <c r="D22">
-        <v>1.027506969697743</v>
+        <v>1.054544924508758</v>
       </c>
       <c r="E22">
-        <v>0.9892480293904388</v>
+        <v>1.031301099696341</v>
       </c>
       <c r="F22">
-        <v>1.018933691204672</v>
+        <v>1.057686686240796</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045771534979489</v>
+        <v>1.044653153190723</v>
       </c>
       <c r="J22">
-        <v>1.010208876315674</v>
+        <v>1.038560133439428</v>
       </c>
       <c r="K22">
-        <v>1.042552517884656</v>
+        <v>1.058183767108315</v>
       </c>
       <c r="L22">
-        <v>1.005035537001488</v>
+        <v>1.035028470636142</v>
       </c>
       <c r="M22">
-        <v>1.034139173336938</v>
+        <v>1.061313893206674</v>
       </c>
       <c r="N22">
-        <v>1.006347231387152</v>
+        <v>1.016664001474727</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9808725962789883</v>
+        <v>1.032116252038642</v>
       </c>
       <c r="D23">
-        <v>1.029314882733849</v>
+        <v>1.054866847240404</v>
       </c>
       <c r="E23">
-        <v>0.9911583149300143</v>
+        <v>1.031657656606879</v>
       </c>
       <c r="F23">
-        <v>1.021064802597537</v>
+        <v>1.058081963220248</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046729383661922</v>
+        <v>1.044789719672834</v>
       </c>
       <c r="J23">
-        <v>1.011794873622473</v>
+        <v>1.038845360147313</v>
       </c>
       <c r="K23">
-        <v>1.044027246762356</v>
+        <v>1.058437607096149</v>
       </c>
       <c r="L23">
-        <v>1.006590060171455</v>
+        <v>1.035315016976489</v>
       </c>
       <c r="M23">
-        <v>1.035926776110353</v>
+        <v>1.061641057531408</v>
       </c>
       <c r="N23">
-        <v>1.006904095417225</v>
+        <v>1.01676229303468</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9899691974594426</v>
+        <v>1.033762368696515</v>
       </c>
       <c r="D24">
-        <v>1.036246614578693</v>
+        <v>1.056133911989048</v>
       </c>
       <c r="E24">
-        <v>0.9984859021211572</v>
+        <v>1.033062040939589</v>
       </c>
       <c r="F24">
-        <v>1.029239921665971</v>
+        <v>1.059638812959822</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050374229034729</v>
+        <v>1.045324310490069</v>
       </c>
       <c r="J24">
-        <v>1.017858918533316</v>
+        <v>1.039967007331114</v>
       </c>
       <c r="K24">
-        <v>1.049665756245204</v>
+        <v>1.059435184543622</v>
       </c>
       <c r="L24">
-        <v>1.012539659290458</v>
+        <v>1.036442386981111</v>
       </c>
       <c r="M24">
-        <v>1.042772298098104</v>
+        <v>1.062928404069555</v>
       </c>
       <c r="N24">
-        <v>1.009032403303929</v>
+        <v>1.017148414495842</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000028486963534</v>
+        <v>1.035672440291702</v>
       </c>
       <c r="D25">
-        <v>1.043937272710521</v>
+        <v>1.057603609475648</v>
       </c>
       <c r="E25">
-        <v>1.006624554114321</v>
+        <v>1.034693110702603</v>
       </c>
       <c r="F25">
-        <v>1.038320131939962</v>
+        <v>1.061446864123486</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054361982142992</v>
+        <v>1.045938341469616</v>
       </c>
       <c r="J25">
-        <v>1.024554892446644</v>
+        <v>1.041266013554785</v>
       </c>
       <c r="K25">
-        <v>1.055889765293289</v>
+        <v>1.060589156720328</v>
       </c>
       <c r="L25">
-        <v>1.019120895520222</v>
+        <v>1.037749122692682</v>
       </c>
       <c r="M25">
-        <v>1.050351337659898</v>
+        <v>1.064420915495446</v>
       </c>
       <c r="N25">
-        <v>1.011380216627908</v>
+        <v>1.017594741227114</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_163/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_163/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037195823397943</v>
+        <v>1.007695583645083</v>
       </c>
       <c r="D2">
-        <v>1.058775295629043</v>
+        <v>1.049814677636937</v>
       </c>
       <c r="E2">
-        <v>1.035995151814558</v>
+        <v>1.012853124807946</v>
       </c>
       <c r="F2">
-        <v>1.062890104108977</v>
+        <v>1.045268819582445</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046422988364257</v>
+        <v>1.057364686257872</v>
       </c>
       <c r="J2">
-        <v>1.042300013289401</v>
+        <v>1.02964853242919</v>
       </c>
       <c r="K2">
-        <v>1.061506608624412</v>
+        <v>1.060621043146499</v>
       </c>
       <c r="L2">
-        <v>1.038790161008696</v>
+        <v>1.024136252920806</v>
       </c>
       <c r="M2">
-        <v>1.065610226813948</v>
+        <v>1.056131554949291</v>
       </c>
       <c r="N2">
-        <v>1.017949323390593</v>
+        <v>1.013163874404795</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038301907098893</v>
+        <v>1.013075538796579</v>
       </c>
       <c r="D3">
-        <v>1.059625727306972</v>
+        <v>1.053945826845704</v>
       </c>
       <c r="E3">
-        <v>1.036941194715247</v>
+        <v>1.017236982254482</v>
       </c>
       <c r="F3">
-        <v>1.063938690463393</v>
+        <v>1.050158978640296</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046771927702337</v>
+        <v>1.059449286532608</v>
       </c>
       <c r="J3">
-        <v>1.043049588437844</v>
+        <v>1.033215988852824</v>
       </c>
       <c r="K3">
-        <v>1.062171047564367</v>
+        <v>1.063932030803195</v>
       </c>
       <c r="L3">
-        <v>1.039545351382776</v>
+        <v>1.027653962663031</v>
       </c>
       <c r="M3">
-        <v>1.066473130196653</v>
+        <v>1.060187903056741</v>
       </c>
       <c r="N3">
-        <v>1.018205966331456</v>
+        <v>1.014411520817796</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039017611630844</v>
+        <v>1.016476003020153</v>
       </c>
       <c r="D4">
-        <v>1.060175866077687</v>
+        <v>1.05655959534512</v>
       </c>
       <c r="E4">
-        <v>1.037553648142538</v>
+        <v>1.020013601362798</v>
       </c>
       <c r="F4">
-        <v>1.064617505181267</v>
+        <v>1.053255948085364</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046996346987633</v>
+        <v>1.060756170195267</v>
       </c>
       <c r="J4">
-        <v>1.043534060973029</v>
+        <v>1.035467438837712</v>
       </c>
       <c r="K4">
-        <v>1.062600191590333</v>
+        <v>1.066020152125061</v>
       </c>
       <c r="L4">
-        <v>1.04003369016254</v>
+        <v>1.029876334519714</v>
       </c>
       <c r="M4">
-        <v>1.067031190109528</v>
+        <v>1.06275145549821</v>
       </c>
       <c r="N4">
-        <v>1.01837165451397</v>
+        <v>1.015198113246392</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039318493206447</v>
+        <v>1.017887036335459</v>
       </c>
       <c r="D5">
-        <v>1.060407108717139</v>
+        <v>1.0576447306874</v>
       </c>
       <c r="E5">
-        <v>1.037811195448025</v>
+        <v>1.02116709141616</v>
       </c>
       <c r="F5">
-        <v>1.064902952750207</v>
+        <v>1.054542431816817</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047090365359391</v>
+        <v>1.061295843317062</v>
       </c>
       <c r="J5">
-        <v>1.043737601072812</v>
+        <v>1.036400826646309</v>
       </c>
       <c r="K5">
-        <v>1.062780413820245</v>
+        <v>1.066885443278995</v>
       </c>
       <c r="L5">
-        <v>1.040238911271845</v>
+        <v>1.030798219292203</v>
       </c>
       <c r="M5">
-        <v>1.067265727421962</v>
+        <v>1.06381506521169</v>
       </c>
       <c r="N5">
-        <v>1.018441219529261</v>
+        <v>1.015524007718845</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039369012532416</v>
+        <v>1.018122891403484</v>
       </c>
       <c r="D6">
-        <v>1.060445933268317</v>
+        <v>1.057826141252101</v>
       </c>
       <c r="E6">
-        <v>1.037854442988265</v>
+        <v>1.021359974180494</v>
       </c>
       <c r="F6">
-        <v>1.064950884979456</v>
+        <v>1.054757547788914</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047106132252002</v>
+        <v>1.061385894344147</v>
       </c>
       <c r="J6">
-        <v>1.043771768606456</v>
+        <v>1.036556791319866</v>
       </c>
       <c r="K6">
-        <v>1.062810662782436</v>
+        <v>1.067030005748073</v>
       </c>
       <c r="L6">
-        <v>1.040273364314342</v>
+        <v>1.030952294206959</v>
       </c>
       <c r="M6">
-        <v>1.067305103096639</v>
+        <v>1.063992837748102</v>
       </c>
       <c r="N6">
-        <v>1.018452894504913</v>
+        <v>1.015578450792208</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039021632026658</v>
+        <v>1.016494929065253</v>
       </c>
       <c r="D7">
-        <v>1.060178956093951</v>
+        <v>1.056574148115473</v>
       </c>
       <c r="E7">
-        <v>1.037557089219822</v>
+        <v>1.02002906784879</v>
       </c>
       <c r="F7">
-        <v>1.064621319055638</v>
+        <v>1.053273198173955</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046997604552604</v>
+        <v>1.060763419208182</v>
       </c>
       <c r="J7">
-        <v>1.04353678120487</v>
+        <v>1.035479961719914</v>
       </c>
       <c r="K7">
-        <v>1.062602600475115</v>
+        <v>1.066031762947656</v>
       </c>
       <c r="L7">
-        <v>1.040036432637605</v>
+        <v>1.029888700893001</v>
       </c>
       <c r="M7">
-        <v>1.067034324288035</v>
+        <v>1.06276572224711</v>
       </c>
       <c r="N7">
-        <v>1.018372584399976</v>
+        <v>1.015202486462546</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037569631156617</v>
+        <v>1.009530979399696</v>
       </c>
       <c r="D8">
-        <v>1.059062733266737</v>
+        <v>1.051223431537389</v>
       </c>
       <c r="E8">
-        <v>1.036314809219935</v>
+        <v>1.014347453726111</v>
       </c>
       <c r="F8">
-        <v>1.063244414647948</v>
+        <v>1.046935793861101</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046541197234134</v>
+        <v>1.05807807534098</v>
       </c>
       <c r="J8">
-        <v>1.042553450261964</v>
+        <v>1.030866274927766</v>
       </c>
       <c r="K8">
-        <v>1.061731322816439</v>
+        <v>1.061751529223336</v>
       </c>
       <c r="L8">
-        <v>1.039045447408299</v>
+        <v>1.025336524451945</v>
       </c>
       <c r="M8">
-        <v>1.065901910311075</v>
+        <v>1.057515417546138</v>
       </c>
       <c r="N8">
-        <v>1.018036135095609</v>
+        <v>1.013589918410136</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035010944492715</v>
+        <v>0.9966025587682529</v>
       </c>
       <c r="D9">
-        <v>1.057094694959282</v>
+        <v>1.041315260392458</v>
       </c>
       <c r="E9">
-        <v>1.034128054918739</v>
+        <v>1.003848527279411</v>
       </c>
       <c r="F9">
-        <v>1.060820508369882</v>
+        <v>1.035222980773815</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045726475068794</v>
+        <v>1.053009513728017</v>
       </c>
       <c r="J9">
-        <v>1.040816454596851</v>
+        <v>1.022275862522456</v>
       </c>
       <c r="K9">
-        <v>1.060189960565971</v>
+        <v>1.053771793367867</v>
       </c>
       <c r="L9">
-        <v>1.037296751338497</v>
+        <v>1.016879471887189</v>
       </c>
       <c r="M9">
-        <v>1.063904188988144</v>
+        <v>1.047769316923476</v>
       </c>
       <c r="N9">
-        <v>1.017440383467543</v>
+        <v>1.010581454846894</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033305054004772</v>
+        <v>0.9874831386905679</v>
       </c>
       <c r="D10">
-        <v>1.055781943906844</v>
+        <v>1.034349923270895</v>
       </c>
       <c r="E10">
-        <v>1.032671764773897</v>
+        <v>0.9964802800075421</v>
       </c>
       <c r="F10">
-        <v>1.059206174009831</v>
+        <v>1.027002271284414</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045176285201569</v>
+        <v>1.049381428028931</v>
       </c>
       <c r="J10">
-        <v>1.039655592790223</v>
+        <v>1.016202324207822</v>
       </c>
       <c r="K10">
-        <v>1.059158321550698</v>
+        <v>1.048125491530453</v>
       </c>
       <c r="L10">
-        <v>1.036129297039099</v>
+        <v>1.010913376218603</v>
       </c>
       <c r="M10">
-        <v>1.062570858318006</v>
+        <v>1.040900525792221</v>
       </c>
       <c r="N10">
-        <v>1.017041277961602</v>
+        <v>1.008451144030187</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032566349386991</v>
+        <v>0.9834010577445359</v>
       </c>
       <c r="D11">
-        <v>1.055213339863933</v>
+        <v>1.031239260875602</v>
       </c>
       <c r="E11">
-        <v>1.032041540509923</v>
+        <v>0.9931920099353402</v>
       </c>
       <c r="F11">
-        <v>1.058507529966244</v>
+        <v>1.023333658376203</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044936376260656</v>
+        <v>1.047745744406774</v>
       </c>
       <c r="J11">
-        <v>1.03915224360585</v>
+        <v>1.013481055576539</v>
       </c>
       <c r="K11">
-        <v>1.058710647858277</v>
+        <v>1.045595154673141</v>
       </c>
       <c r="L11">
-        <v>1.035623381034277</v>
+        <v>1.008243467239923</v>
       </c>
       <c r="M11">
-        <v>1.061993151926254</v>
+        <v>1.037828555247457</v>
       </c>
       <c r="N11">
-        <v>1.016868001369147</v>
+        <v>1.007496046512034</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032291954067856</v>
+        <v>0.9818633932352068</v>
       </c>
       <c r="D12">
-        <v>1.055002109042737</v>
+        <v>1.030068743186249</v>
       </c>
       <c r="E12">
-        <v>1.031807500879393</v>
+        <v>0.9919549535813605</v>
       </c>
       <c r="F12">
-        <v>1.058248078466775</v>
+        <v>1.021953550703248</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044847011918051</v>
+        <v>1.047127932582497</v>
       </c>
       <c r="J12">
-        <v>1.038965173470439</v>
+        <v>1.012455667023501</v>
       </c>
       <c r="K12">
-        <v>1.058544216618267</v>
+        <v>1.044641689385318</v>
       </c>
       <c r="L12">
-        <v>1.035435400819564</v>
+        <v>1.00723792426807</v>
       </c>
       <c r="M12">
-        <v>1.061778511054641</v>
+        <v>1.036671904496385</v>
       </c>
       <c r="N12">
-        <v>1.016803569394394</v>
+        <v>1.007136085281189</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032350813153909</v>
+        <v>0.982194219115852</v>
       </c>
       <c r="D13">
-        <v>1.055047419942517</v>
+        <v>1.030320520213558</v>
       </c>
       <c r="E13">
-        <v>1.031857700746972</v>
+        <v>0.9922210306790857</v>
       </c>
       <c r="F13">
-        <v>1.058303729161262</v>
+        <v>1.022250394620498</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044866192254752</v>
+        <v>1.047260927911114</v>
       </c>
       <c r="J13">
-        <v>1.039005305355053</v>
+        <v>1.012676291099524</v>
       </c>
       <c r="K13">
-        <v>1.058579923259081</v>
+        <v>1.044846838395136</v>
       </c>
       <c r="L13">
-        <v>1.035475725955617</v>
+        <v>1.007454255917209</v>
       </c>
       <c r="M13">
-        <v>1.061824554740428</v>
+        <v>1.036920730510541</v>
       </c>
       <c r="N13">
-        <v>1.016817393409682</v>
+        <v>1.007213538206818</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032543667944379</v>
+        <v>0.9832743987768787</v>
       </c>
       <c r="D14">
-        <v>1.055195879986808</v>
+        <v>1.031142818373005</v>
       </c>
       <c r="E14">
-        <v>1.032022193626364</v>
+        <v>0.9930900794814891</v>
       </c>
       <c r="F14">
-        <v>1.058486082482401</v>
+        <v>1.023219940004135</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044928994507003</v>
+        <v>1.04769488810603</v>
       </c>
       <c r="J14">
-        <v>1.039136782450754</v>
+        <v>1.013396599462387</v>
       </c>
       <c r="K14">
-        <v>1.05869689356403</v>
+        <v>1.045516622621348</v>
       </c>
       <c r="L14">
-        <v>1.035607843766693</v>
+        <v>1.008160635638605</v>
       </c>
       <c r="M14">
-        <v>1.061975410767296</v>
+        <v>1.037733269520736</v>
       </c>
       <c r="N14">
-        <v>1.016862676816574</v>
+        <v>1.007466399749748</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032662491114519</v>
+        <v>0.9839370546723115</v>
       </c>
       <c r="D15">
-        <v>1.055287347685705</v>
+        <v>1.031647438247888</v>
       </c>
       <c r="E15">
-        <v>1.032123550230668</v>
+        <v>0.9936234257987797</v>
       </c>
       <c r="F15">
-        <v>1.058598443800482</v>
+        <v>1.023814967596462</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044967655720353</v>
+        <v>1.047960891108452</v>
       </c>
       <c r="J15">
-        <v>1.039217776056837</v>
+        <v>1.013838445200177</v>
       </c>
       <c r="K15">
-        <v>1.058768943576355</v>
+        <v>1.04592747515167</v>
       </c>
       <c r="L15">
-        <v>1.035689237886752</v>
+        <v>1.008594002606817</v>
       </c>
       <c r="M15">
-        <v>1.062068350854023</v>
+        <v>1.038231808369624</v>
       </c>
       <c r="N15">
-        <v>1.016890568229833</v>
+        <v>1.007621498576567</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033354078401615</v>
+        <v>0.9877511300798719</v>
       </c>
       <c r="D16">
-        <v>1.055819676632431</v>
+        <v>1.03455430201117</v>
       </c>
       <c r="E16">
-        <v>1.032713598228004</v>
+        <v>0.996696371857141</v>
       </c>
       <c r="F16">
-        <v>1.059252548573103</v>
+        <v>1.027243361345023</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045192171907695</v>
+        <v>1.049488575959938</v>
       </c>
       <c r="J16">
-        <v>1.03968898387916</v>
+        <v>1.016380928833964</v>
       </c>
       <c r="K16">
-        <v>1.059188011802691</v>
+        <v>1.048291558913394</v>
       </c>
       <c r="L16">
-        <v>1.036162864552528</v>
+        <v>1.011088677639477</v>
       </c>
       <c r="M16">
-        <v>1.062609191081575</v>
+        <v>1.041102268005812</v>
       </c>
       <c r="N16">
-        <v>1.017052768037121</v>
+        <v>1.0085138185261</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033787880601</v>
+        <v>0.9901069779567536</v>
       </c>
       <c r="D17">
-        <v>1.056153546031135</v>
+        <v>1.036351779876075</v>
       </c>
       <c r="E17">
-        <v>1.033083815708381</v>
+        <v>0.9985971228912388</v>
       </c>
       <c r="F17">
-        <v>1.059662951117911</v>
+        <v>1.029364010054953</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045332556962701</v>
+        <v>1.050429173156305</v>
       </c>
       <c r="J17">
-        <v>1.03998437550798</v>
+        <v>1.01795071165332</v>
       </c>
       <c r="K17">
-        <v>1.059450623293628</v>
+        <v>1.049751100165528</v>
       </c>
       <c r="L17">
-        <v>1.036459850585795</v>
+        <v>1.012629794417471</v>
       </c>
       <c r="M17">
-        <v>1.062948347968708</v>
+        <v>1.0428760520129</v>
       </c>
       <c r="N17">
-        <v>1.017154388172185</v>
+        <v>1.009064607265014</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034040906031086</v>
+        <v>0.9914683401610696</v>
       </c>
       <c r="D18">
-        <v>1.056348269583874</v>
+        <v>1.037391150251696</v>
       </c>
       <c r="E18">
-        <v>1.033299791951534</v>
+        <v>0.9996964342218616</v>
       </c>
       <c r="F18">
-        <v>1.059902368011538</v>
+        <v>1.030590507653074</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045414279768246</v>
+        <v>1.050971602916637</v>
       </c>
       <c r="J18">
-        <v>1.040156606058578</v>
+        <v>1.018857583710145</v>
       </c>
       <c r="K18">
-        <v>1.059603706812652</v>
+        <v>1.050594234804965</v>
       </c>
       <c r="L18">
-        <v>1.036633038883521</v>
+        <v>1.013520409664632</v>
       </c>
       <c r="M18">
-        <v>1.063146137192364</v>
+        <v>1.043901304505467</v>
       </c>
       <c r="N18">
-        <v>1.017213616973514</v>
+        <v>1.00938274269016</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034127180510112</v>
+        <v>0.991930404132057</v>
       </c>
       <c r="D19">
-        <v>1.056414662424189</v>
+        <v>1.037744035637889</v>
       </c>
       <c r="E19">
-        <v>1.033373440152831</v>
+        <v>1.000069710346868</v>
       </c>
       <c r="F19">
-        <v>1.059984009099718</v>
+        <v>1.03100697105386</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04544211775661</v>
+        <v>1.05115552027752</v>
       </c>
       <c r="J19">
-        <v>1.040215320977513</v>
+        <v>1.019165343402972</v>
       </c>
       <c r="K19">
-        <v>1.059655888507441</v>
+        <v>1.050880354268334</v>
       </c>
       <c r="L19">
-        <v>1.036692085074135</v>
+        <v>1.013822703638743</v>
       </c>
       <c r="M19">
-        <v>1.063213572230105</v>
+        <v>1.044249326635329</v>
       </c>
       <c r="N19">
-        <v>1.017233804916445</v>
+        <v>1.009490696062807</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033741338157538</v>
+        <v>0.9898555475275834</v>
       </c>
       <c r="D20">
-        <v>1.056117726742431</v>
+        <v>1.036159871471572</v>
       </c>
       <c r="E20">
-        <v>1.033044091293779</v>
+        <v>0.9983941655787699</v>
       </c>
       <c r="F20">
-        <v>1.059618915082361</v>
+        <v>1.029137571757577</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045317511672281</v>
+        <v>1.050328901415873</v>
       </c>
       <c r="J20">
-        <v>1.039952689651573</v>
+        <v>1.017783200425271</v>
       </c>
       <c r="K20">
-        <v>1.059422457218384</v>
+        <v>1.049595357647012</v>
       </c>
       <c r="L20">
-        <v>1.0364279907929</v>
+        <v>1.012465310542511</v>
       </c>
       <c r="M20">
-        <v>1.062911963291167</v>
+        <v>1.042686716779052</v>
       </c>
       <c r="N20">
-        <v>1.017143489896883</v>
+        <v>1.009005838639172</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032486877232194</v>
+        <v>0.9829569150849217</v>
       </c>
       <c r="D21">
-        <v>1.055152162919092</v>
+        <v>1.030901095610387</v>
       </c>
       <c r="E21">
-        <v>1.031973753091969</v>
+        <v>0.9928346062902403</v>
       </c>
       <c r="F21">
-        <v>1.05843238242908</v>
+        <v>1.022934922822517</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044910507752028</v>
+        <v>1.047567384936427</v>
       </c>
       <c r="J21">
-        <v>1.039098068592809</v>
+        <v>1.013184896577942</v>
       </c>
       <c r="K21">
-        <v>1.058662452735479</v>
+        <v>1.045319769207709</v>
       </c>
       <c r="L21">
-        <v>1.035568940036366</v>
+        <v>1.007953012827148</v>
       </c>
       <c r="M21">
-        <v>1.061930988946289</v>
+        <v>1.037494434842646</v>
       </c>
       <c r="N21">
-        <v>1.016849343896094</v>
+        <v>1.007392084194197</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031698103727694</v>
+        <v>0.9784948996850501</v>
       </c>
       <c r="D22">
-        <v>1.054544924508758</v>
+        <v>1.027506969697742</v>
       </c>
       <c r="E22">
-        <v>1.031301099696341</v>
+        <v>0.9892480293904388</v>
       </c>
       <c r="F22">
-        <v>1.057686686240796</v>
+        <v>1.018933691204671</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044653153190723</v>
+        <v>1.045771534979488</v>
       </c>
       <c r="J22">
-        <v>1.038560133439428</v>
+        <v>1.010208876315674</v>
       </c>
       <c r="K22">
-        <v>1.058183767108315</v>
+        <v>1.042552517884655</v>
       </c>
       <c r="L22">
-        <v>1.035028470636142</v>
+        <v>1.005035537001488</v>
       </c>
       <c r="M22">
-        <v>1.061313893206674</v>
+        <v>1.034139173336936</v>
       </c>
       <c r="N22">
-        <v>1.016664001474727</v>
+        <v>1.006347231387152</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032116252038642</v>
+        <v>0.9808725962789876</v>
       </c>
       <c r="D23">
-        <v>1.054866847240404</v>
+        <v>1.029314882733848</v>
       </c>
       <c r="E23">
-        <v>1.031657656606879</v>
+        <v>0.9911583149300133</v>
       </c>
       <c r="F23">
-        <v>1.058081963220248</v>
+        <v>1.021064802597536</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044789719672834</v>
+        <v>1.046729383661921</v>
       </c>
       <c r="J23">
-        <v>1.038845360147313</v>
+        <v>1.011794873622472</v>
       </c>
       <c r="K23">
-        <v>1.058437607096149</v>
+        <v>1.044027246762355</v>
       </c>
       <c r="L23">
-        <v>1.035315016976489</v>
+        <v>1.006590060171454</v>
       </c>
       <c r="M23">
-        <v>1.061641057531408</v>
+        <v>1.035926776110352</v>
       </c>
       <c r="N23">
-        <v>1.01676229303468</v>
+        <v>1.006904095417224</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033762368696515</v>
+        <v>0.9899691974594418</v>
       </c>
       <c r="D24">
-        <v>1.056133911989048</v>
+        <v>1.036246614578692</v>
       </c>
       <c r="E24">
-        <v>1.033062040939589</v>
+        <v>0.9984859021211563</v>
       </c>
       <c r="F24">
-        <v>1.059638812959822</v>
+        <v>1.02923992166597</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045324310490069</v>
+        <v>1.050374229034728</v>
       </c>
       <c r="J24">
-        <v>1.039967007331114</v>
+        <v>1.017858918533315</v>
       </c>
       <c r="K24">
-        <v>1.059435184543622</v>
+        <v>1.049665756245204</v>
       </c>
       <c r="L24">
-        <v>1.036442386981111</v>
+        <v>1.012539659290457</v>
       </c>
       <c r="M24">
-        <v>1.062928404069555</v>
+        <v>1.042772298098104</v>
       </c>
       <c r="N24">
-        <v>1.017148414495842</v>
+        <v>1.009032403303929</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035672440291702</v>
+        <v>1.000028486963533</v>
       </c>
       <c r="D25">
-        <v>1.057603609475648</v>
+        <v>1.043937272710521</v>
       </c>
       <c r="E25">
-        <v>1.034693110702603</v>
+        <v>1.00662455411432</v>
       </c>
       <c r="F25">
-        <v>1.061446864123486</v>
+        <v>1.038320131939962</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045938341469616</v>
+        <v>1.054361982142992</v>
       </c>
       <c r="J25">
-        <v>1.041266013554785</v>
+        <v>1.024554892446644</v>
       </c>
       <c r="K25">
-        <v>1.060589156720328</v>
+        <v>1.05588976529329</v>
       </c>
       <c r="L25">
-        <v>1.037749122692682</v>
+        <v>1.019120895520222</v>
       </c>
       <c r="M25">
-        <v>1.064420915495446</v>
+        <v>1.050351337659897</v>
       </c>
       <c r="N25">
-        <v>1.017594741227114</v>
+        <v>1.011380216627908</v>
       </c>
     </row>
   </sheetData>
